--- a/sampl1.xlsx
+++ b/sampl1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26E39964-D79F-4359-AFE5-31B9A8915AFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>develop-ut</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +339,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sampl1.xlsx
+++ b/sampl1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26E39964-D79F-4359-AFE5-31B9A8915AFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83815309-A3C9-4051-ADCD-71A88A99E512}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,10 +340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -353,6 +353,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sampl1.xlsx
+++ b/sampl1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26E39964-D79F-4359-AFE5-31B9A8915AFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B89AA2BE-2B7C-4D58-9201-B4F9BDF65651}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,17 +340,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2.22222222222222E+18</v>
       </c>
     </row>
   </sheetData>

--- a/sampl1.xlsx
+++ b/sampl1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B89AA2BE-2B7C-4D58-9201-B4F9BDF65651}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83815309-A3C9-4051-ADCD-71A88A99E512}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,13 +343,10 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -358,7 +355,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.22222222222222E+18</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>

--- a/sampl1.xlsx
+++ b/sampl1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83815309-A3C9-4051-ADCD-71A88A99E512}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01955127-864E-477C-A5B5-44B69B40D2CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>develop-ut</t>
+  </si>
+  <si>
+    <t>step2 add</t>
   </si>
 </sst>
 </file>
@@ -340,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,6 +361,11 @@
         <v>1111</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sampl1.xlsx
+++ b/sampl1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83815309-A3C9-4051-ADCD-71A88A99E512}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F448590D-4B14-46C6-920C-C9C9EB786E14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>develop-ut</t>
+  </si>
+  <si>
+    <t>step1 added</t>
   </si>
 </sst>
 </file>
@@ -340,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,6 +361,11 @@
         <v>1111</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sampl1.xlsx
+++ b/sampl1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F448590D-4B14-46C6-920C-C9C9EB786E14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55900731-1320-4159-9CE0-7DD1CFC54869}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>develop-ut</t>
   </si>
   <si>
     <t>step1 added</t>
+  </si>
+  <si>
+    <t>Step2 added</t>
   </si>
 </sst>
 </file>
@@ -343,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,6 +369,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sampl1.xlsx
+++ b/sampl1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F448590D-4B14-46C6-920C-C9C9EB786E14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{96B64D94-D515-47E5-8333-30C7F82CD4F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>develop-ut</t>
   </si>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -366,6 +366,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sampl1.xlsx
+++ b/sampl1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{96B64D94-D515-47E5-8333-30C7F82CD4F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{801D08CC-BFDB-4234-9F67-E9C2B0B1D430}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>develop-ut</t>
   </si>
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,6 +371,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sampl1.xlsx
+++ b/sampl1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{96B64D94-D515-47E5-8333-30C7F82CD4F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3ABEA0B0-A95E-4615-A440-16B107977DFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>develop-ut</t>
   </si>
   <si>
     <t>step1 added</t>
+  </si>
+  <si>
+    <t>step2 added</t>
   </si>
 </sst>
 </file>
@@ -343,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,6 +374,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
